--- a/src/R/translations.xlsx
+++ b/src/R/translations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivermazariegos/Sites/polio-risk/src/R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivermazariegos/Sites/polio-risk-assessment/src/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091CBCD7-584E-4046-83E2-85BE8B6114EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36897AB7-4847-F24F-9C85-0B5192DC481B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="760" windowWidth="19080" windowHeight="18880" activeTab="2" xr2:uid="{41A3C097-9B5C-484B-88DA-6A6C7D19F152}"/>
+    <workbookView xWindow="2360" yWindow="760" windowWidth="19080" windowHeight="18880" activeTab="1" xr2:uid="{41A3C097-9B5C-484B-88DA-6A6C7D19F152}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORT" sheetId="5" r:id="rId1"/>
@@ -1751,9 +1751,6 @@
     <t>% de la población con acceso a servicios básicos de saneamiento</t>
   </si>
   <si>
-    <t>tilte_outbreaks</t>
-  </si>
-  <si>
     <t>Datos de población</t>
   </si>
   <si>
@@ -4416,13 +4413,16 @@
   </si>
   <si>
     <t>Détail par composant</t>
+  </si>
+  <si>
+    <t>title_outbreaks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4479,12 +4479,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4525,7 +4519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4571,38 +4565,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -4629,9 +4606,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4669,7 +4646,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4775,7 +4752,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4917,7 +4894,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4983,13 +4960,13 @@
         <v>528</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>671</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="3" t="s">
         <v>672</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5000,9 +4977,9 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="D4" s="25" t="s">
+        <v>673</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -5017,9 +4994,9 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="D5" s="25" t="s">
+        <v>674</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -5034,13 +5011,13 @@
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="D6" s="25" t="s">
+        <v>675</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5051,13 +5028,13 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>677</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>678</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5068,13 +5045,13 @@
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>679</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="E8" s="3" t="s">
         <v>680</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -5085,13 +5062,13 @@
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>682</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="3" t="s">
         <v>683</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5104,7 +5081,7 @@
       <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -5121,8 +5098,8 @@
       <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>685</v>
+      <c r="D11" s="19" t="s">
+        <v>684</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>33</v>
@@ -5138,7 +5115,7 @@
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -5155,8 +5132,8 @@
       <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>686</v>
+      <c r="D13" s="19" t="s">
+        <v>685</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>41</v>
@@ -5172,7 +5149,7 @@
       <c r="C14" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="19" t="s">
         <v>101</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -5184,13 +5161,13 @@
         <v>103</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>687</v>
+      <c r="D15" s="19" t="s">
+        <v>686</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>106</v>
@@ -5206,7 +5183,7 @@
       <c r="C16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="19" t="s">
         <v>108</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -5223,7 +5200,7 @@
       <c r="C17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="19" t="s">
         <v>114</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -5238,13 +5215,13 @@
         <v>69</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>688</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5255,13 +5232,13 @@
         <v>71</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>690</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="238" x14ac:dyDescent="0.2">
@@ -5269,16 +5246,16 @@
         <v>25</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>692</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="E20" s="3" t="s">
         <v>693</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="136" x14ac:dyDescent="0.2">
@@ -5286,33 +5263,33 @@
         <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>695</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="E21" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>529</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="D22" s="19" t="s">
         <v>698</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="E22" s="3" t="s">
         <v>699</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5323,13 +5300,13 @@
         <v>24</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>701</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="E23" s="3" t="s">
         <v>702</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5342,11 +5319,11 @@
       <c r="C24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="19" t="s">
+        <v>703</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>704</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5357,13 +5334,13 @@
         <v>45</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>706</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5374,13 +5351,13 @@
         <v>47</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>708</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="E26" s="3" t="s">
         <v>709</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5391,13 +5368,13 @@
         <v>49</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>711</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="E27" s="3" t="s">
         <v>712</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5408,13 +5385,13 @@
         <v>51</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D28" s="19" t="s">
         <v>714</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="E28" s="3" t="s">
         <v>715</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5425,13 +5402,13 @@
         <v>53</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>717</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5444,7 +5421,7 @@
       <c r="C30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="19" t="s">
         <v>57</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -5459,13 +5436,13 @@
         <v>60</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>719</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="E31" s="3" t="s">
         <v>720</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5476,13 +5453,13 @@
         <v>62</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="D32" s="19" t="s">
         <v>722</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="E32" s="3" t="s">
         <v>723</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5493,10 +5470,10 @@
         <v>269</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="D33" s="19" t="s">
         <v>725</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>726</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>272</v>
@@ -5512,8 +5489,8 @@
       <c r="C34" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="25" t="s">
-        <v>727</v>
+      <c r="D34" s="19" t="s">
+        <v>726</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>149</v>
@@ -5529,7 +5506,7 @@
       <c r="C35" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="19" t="s">
         <v>152</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -5546,7 +5523,7 @@
       <c r="C36" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="19" t="s">
         <v>327</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -5563,11 +5540,11 @@
       <c r="C37" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="19" t="s">
+        <v>727</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>728</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -5575,16 +5552,16 @@
         <v>72</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="D38" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="E38" s="3" t="s">
         <v>731</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -5592,16 +5569,16 @@
         <v>73</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>733</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="E39" s="3" t="s">
         <v>734</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -5609,16 +5586,16 @@
         <v>74</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="D40" s="19" t="s">
         <v>736</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="E40" s="3" t="s">
         <v>737</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5626,16 +5603,16 @@
         <v>75</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="D41" s="19" t="s">
         <v>739</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="E41" s="3" t="s">
         <v>740</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5643,16 +5620,16 @@
         <v>76</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="D42" s="19" t="s">
         <v>742</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="E42" s="3" t="s">
         <v>743</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5663,205 +5640,205 @@
         <v>163</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="D43" s="19" t="s">
         <v>745</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="E43" s="3" t="s">
         <v>746</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>558</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>560</v>
-      </c>
       <c r="C44" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="D44" s="19" t="s">
         <v>748</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="E44" s="3" t="s">
         <v>749</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>560</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>562</v>
-      </c>
       <c r="C45" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>751</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="E45" s="3" t="s">
         <v>752</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>562</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>564</v>
-      </c>
       <c r="C46" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="D46" s="19" t="s">
         <v>754</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="E46" s="3" t="s">
         <v>755</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>564</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>566</v>
-      </c>
       <c r="C47" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="D47" s="19" t="s">
         <v>757</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="E47" s="3" t="s">
         <v>758</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="D48" s="19" t="s">
         <v>760</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="E48" s="3" t="s">
         <v>761</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="D49" s="19" t="s">
         <v>763</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="E49" s="3" t="s">
         <v>764</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="D50" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="E50" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>566</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>568</v>
-      </c>
       <c r="C51" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="D51" s="19" t="s">
         <v>769</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="E51" s="3" t="s">
         <v>770</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>568</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>570</v>
-      </c>
       <c r="C52" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="D52" s="19" t="s">
         <v>772</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="E52" s="3" t="s">
         <v>773</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>570</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>572</v>
-      </c>
       <c r="C53" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="D53" s="19" t="s">
         <v>775</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="E53" s="3" t="s">
         <v>776</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>572</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>574</v>
-      </c>
       <c r="C54" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="D54" s="19" t="s">
         <v>778</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="E54" s="3" t="s">
         <v>779</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>161</v>
@@ -5869,8 +5846,8 @@
       <c r="C55" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D55" s="25" t="s">
-        <v>781</v>
+      <c r="D55" s="19" t="s">
+        <v>780</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>161</v>
@@ -5878,155 +5855,155 @@
     </row>
     <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>782</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>576</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>578</v>
-      </c>
       <c r="C57" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="D57" s="19" t="s">
         <v>784</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="E57" s="3" t="s">
         <v>785</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="D58" s="19" t="s">
         <v>787</v>
       </c>
-      <c r="D58" s="25" t="s">
-        <v>788</v>
-      </c>
       <c r="E58" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="D59" s="19" t="s">
         <v>789</v>
       </c>
-      <c r="D59" s="25" t="s">
-        <v>790</v>
-      </c>
       <c r="E59" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="D60" s="19" t="s">
         <v>791</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="E60" s="3" t="s">
         <v>792</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="D61" s="19" t="s">
         <v>794</v>
       </c>
-      <c r="D61" s="25" t="s">
-        <v>795</v>
-      </c>
       <c r="E61" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="D62" s="19" t="s">
         <v>796</v>
       </c>
-      <c r="D62" s="25" t="s">
-        <v>797</v>
-      </c>
       <c r="E62" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="D63" s="19" t="s">
         <v>798</v>
       </c>
-      <c r="D63" s="25" t="s">
-        <v>799</v>
-      </c>
       <c r="E63" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D64" s="19" t="s">
         <v>800</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="E64" s="3" t="s">
         <v>801</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -6037,13 +6014,13 @@
         <v>465</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>803</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>465</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -6054,13 +6031,13 @@
         <v>491</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="D66" s="19" t="s">
         <v>805</v>
       </c>
-      <c r="D66" s="25" t="s">
+      <c r="E66" s="3" t="s">
         <v>806</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -6071,13 +6048,13 @@
         <v>492</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="D67" s="19" t="s">
         <v>808</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="E67" s="3" t="s">
         <v>809</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -6090,7 +6067,7 @@
       <c r="C68" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D68" s="25" t="s">
+      <c r="D68" s="19" t="s">
         <v>95</v>
       </c>
       <c r="E68" s="3" t="s">
@@ -6107,11 +6084,11 @@
       <c r="C69" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D69" s="25" t="s">
+      <c r="D69" s="19" t="s">
         <v>303</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -6124,7 +6101,7 @@
       <c r="C70" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D70" s="25" t="s">
+      <c r="D70" s="19" t="s">
         <v>495</v>
       </c>
       <c r="E70" s="3" t="s">
@@ -6141,7 +6118,7 @@
       <c r="C71" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D71" s="25" t="s">
+      <c r="D71" s="19" t="s">
         <v>123</v>
       </c>
       <c r="E71" s="3" t="s">
@@ -6158,7 +6135,7 @@
       <c r="C72" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="25" t="s">
+      <c r="D72" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E72" s="3" t="s">
@@ -6175,8 +6152,8 @@
       <c r="C73" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D73" s="25" t="s">
-        <v>685</v>
+      <c r="D73" s="19" t="s">
+        <v>684</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>33</v>
@@ -6192,7 +6169,7 @@
       <c r="C74" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D74" s="25" t="s">
+      <c r="D74" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E74" s="3" t="s">
@@ -6209,8 +6186,8 @@
       <c r="C75" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D75" s="25" t="s">
-        <v>686</v>
+      <c r="D75" s="19" t="s">
+        <v>685</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>41</v>
@@ -6224,13 +6201,13 @@
         <v>311</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="D76" s="20" t="s">
         <v>812</v>
       </c>
-      <c r="D76" s="26" t="s">
+      <c r="E76" s="3" t="s">
         <v>813</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -6243,28 +6220,28 @@
       <c r="C77" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D77" s="25" t="s">
+      <c r="D77" s="19" t="s">
         <v>129</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="D78" s="19" t="s">
         <v>784</v>
       </c>
-      <c r="D78" s="25" t="s">
-        <v>785</v>
-      </c>
       <c r="E78" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -6275,13 +6252,13 @@
         <v>306</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D79" s="19" t="s">
         <v>817</v>
       </c>
-      <c r="D79" s="25" t="s">
+      <c r="E79" s="3" t="s">
         <v>818</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -6292,13 +6269,13 @@
         <v>308</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="D80" s="19" t="s">
         <v>820</v>
       </c>
-      <c r="D80" s="25" t="s">
+      <c r="E80" s="3" t="s">
         <v>821</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -6309,47 +6286,47 @@
         <v>300</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="D81" s="19" t="s">
         <v>823</v>
       </c>
-      <c r="D81" s="25" t="s">
+      <c r="E81" s="3" t="s">
         <v>824</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>583</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>585</v>
-      </c>
       <c r="C82" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="D82" s="19" t="s">
         <v>826</v>
       </c>
-      <c r="D82" s="25" t="s">
+      <c r="E82" s="3" t="s">
         <v>827</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>585</v>
+      </c>
+      <c r="B83" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="B83" s="15" t="s">
-        <v>587</v>
-      </c>
       <c r="C83" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="D83" s="19" t="s">
         <v>829</v>
       </c>
-      <c r="D83" s="25" t="s">
+      <c r="E83" s="3" t="s">
         <v>830</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -6357,84 +6334,84 @@
         <v>77</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="D84" s="19" t="s">
         <v>832</v>
       </c>
-      <c r="D84" s="25" t="s">
+      <c r="E84" s="3" t="s">
         <v>833</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="D85" s="19" t="s">
         <v>835</v>
       </c>
-      <c r="D85" s="25" t="s">
+      <c r="E85" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>588</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>590</v>
-      </c>
       <c r="C86" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="D86" s="19" t="s">
         <v>838</v>
       </c>
-      <c r="D86" s="25" t="s">
+      <c r="E86" s="3" t="s">
         <v>839</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C87" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="D87" s="19" t="s">
         <v>841</v>
       </c>
-      <c r="D87" s="25" t="s">
+      <c r="E87" s="3" t="s">
         <v>842</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="D88" s="19" t="s">
         <v>844</v>
       </c>
-      <c r="D88" s="25" t="s">
+      <c r="E88" s="3" t="s">
         <v>845</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -6442,16 +6419,16 @@
         <v>381</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C89" s="16" t="s">
+        <v>846</v>
+      </c>
+      <c r="D89" s="19" t="s">
         <v>847</v>
       </c>
-      <c r="D89" s="25" t="s">
+      <c r="E89" s="3" t="s">
         <v>848</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -6459,16 +6436,16 @@
         <v>382</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="D90" s="19" t="s">
         <v>850</v>
       </c>
-      <c r="D90" s="25" t="s">
+      <c r="E90" s="3" t="s">
         <v>851</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -6479,13 +6456,13 @@
         <v>411</v>
       </c>
       <c r="C91" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="D91" s="19" t="s">
         <v>853</v>
       </c>
-      <c r="D91" s="25" t="s">
+      <c r="E91" s="3" t="s">
         <v>854</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -6493,16 +6470,16 @@
         <v>82</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C92" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="D92" s="19" t="s">
         <v>856</v>
       </c>
-      <c r="D92" s="25" t="s">
-        <v>857</v>
-      </c>
       <c r="E92" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -6513,13 +6490,13 @@
         <v>139</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="D93" s="19" t="s">
         <v>858</v>
       </c>
-      <c r="D93" s="25" t="s">
+      <c r="E93" s="3" t="s">
         <v>859</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -6530,13 +6507,13 @@
         <v>407</v>
       </c>
       <c r="C94" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="D94" s="19" t="s">
         <v>861</v>
       </c>
-      <c r="D94" s="25" t="s">
+      <c r="E94" s="3" t="s">
         <v>862</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -6547,13 +6524,13 @@
         <v>409</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="D95" s="19" t="s">
         <v>864</v>
       </c>
-      <c r="D95" s="25" t="s">
+      <c r="E95" s="3" t="s">
         <v>865</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -6564,13 +6541,13 @@
         <v>418</v>
       </c>
       <c r="C96" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="D96" s="19" t="s">
         <v>867</v>
       </c>
-      <c r="D96" s="25" t="s">
+      <c r="E96" s="3" t="s">
         <v>868</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -6581,13 +6558,13 @@
         <v>425</v>
       </c>
       <c r="C97" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D97" s="19" t="s">
         <v>870</v>
       </c>
-      <c r="D97" s="25" t="s">
+      <c r="E97" s="3" t="s">
         <v>871</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -6598,13 +6575,13 @@
         <v>428</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="D98" s="19" t="s">
         <v>873</v>
       </c>
-      <c r="D98" s="25" t="s">
+      <c r="E98" s="3" t="s">
         <v>874</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -6615,13 +6592,13 @@
         <v>433</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="D99" s="19" t="s">
         <v>876</v>
       </c>
-      <c r="D99" s="25" t="s">
+      <c r="E99" s="3" t="s">
         <v>877</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -6632,98 +6609,98 @@
         <v>436</v>
       </c>
       <c r="C100" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="D100" s="19" t="s">
         <v>879</v>
       </c>
-      <c r="D100" s="25" t="s">
+      <c r="E100" s="3" t="s">
         <v>880</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>640</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>642</v>
-      </c>
       <c r="C101" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="D101" s="19" t="s">
         <v>835</v>
       </c>
-      <c r="D101" s="25" t="s">
+      <c r="E101" s="3" t="s">
         <v>836</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>595</v>
+      </c>
+      <c r="B102" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="B102" s="13" t="s">
-        <v>597</v>
-      </c>
       <c r="C102" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="D102" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="D102" s="25" t="s">
+      <c r="E102" s="3" t="s">
         <v>883</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>597</v>
+      </c>
+      <c r="B103" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="B103" s="13" t="s">
-        <v>599</v>
-      </c>
       <c r="C103" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="D103" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="D103" s="25" t="s">
+      <c r="E103" s="3" t="s">
         <v>886</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>643</v>
+      </c>
+      <c r="B104" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="B104" s="13" t="s">
-        <v>645</v>
-      </c>
       <c r="C104" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="D104" s="19" t="s">
         <v>888</v>
       </c>
-      <c r="D104" s="25" t="s">
+      <c r="E104" s="3" t="s">
         <v>889</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>613</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>615</v>
-      </c>
       <c r="C105" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="D105" s="19" t="s">
         <v>891</v>
       </c>
-      <c r="D105" s="25" t="s">
+      <c r="E105" s="3" t="s">
         <v>892</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -6734,13 +6711,13 @@
         <v>208</v>
       </c>
       <c r="C106" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D106" s="19" t="s">
         <v>894</v>
       </c>
-      <c r="D106" s="25" t="s">
+      <c r="E106" s="3" t="s">
         <v>895</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -6751,13 +6728,13 @@
         <v>210</v>
       </c>
       <c r="C107" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="D107" s="19" t="s">
         <v>897</v>
       </c>
-      <c r="D107" s="25" t="s">
+      <c r="E107" s="3" t="s">
         <v>898</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -6768,13 +6745,13 @@
         <v>212</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="D108" s="25" t="s">
+        <v>899</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>897</v>
+      </c>
+      <c r="E108" s="3" t="s">
         <v>898</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -6785,13 +6762,13 @@
         <v>214</v>
       </c>
       <c r="C109" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="D109" s="19" t="s">
         <v>901</v>
       </c>
-      <c r="D109" s="25" t="s">
+      <c r="E109" s="3" t="s">
         <v>902</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -6802,64 +6779,64 @@
         <v>216</v>
       </c>
       <c r="C110" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="D110" s="19" t="s">
         <v>904</v>
       </c>
-      <c r="D110" s="25" t="s">
+      <c r="E110" s="3" t="s">
         <v>905</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C111" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="D111" s="19" t="s">
         <v>907</v>
       </c>
-      <c r="D111" s="25" t="s">
+      <c r="E111" s="3" t="s">
         <v>908</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C112" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="D112" s="19" t="s">
         <v>910</v>
       </c>
-      <c r="D112" s="25" t="s">
+      <c r="E112" s="3" t="s">
         <v>911</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C113" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="D113" s="19" t="s">
         <v>913</v>
       </c>
-      <c r="D113" s="25" t="s">
+      <c r="E113" s="3" t="s">
         <v>914</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>915</v>
       </c>
     </row>
   </sheetData>
@@ -6872,8 +6849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0484DBD2-0F3F-5E4C-83A2-49E17C536753}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6900,7 +6877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>155</v>
       </c>
@@ -6908,16 +6885,16 @@
         <v>156</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>916</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="4" t="s">
         <v>917</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -6925,13 +6902,13 @@
         <v>530</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>919</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="4" t="s">
         <v>920</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -6944,7 +6921,7 @@
       <c r="C4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="19" t="s">
         <v>148</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -6961,7 +6938,7 @@
       <c r="C5" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="19" t="s">
         <v>152</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -6976,16 +6953,16 @@
         <v>161</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>781</v>
+        <v>921</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>780</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>162</v>
       </c>
@@ -6993,13 +6970,13 @@
         <v>163</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>745</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="E7" s="4" t="s">
         <v>746</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7012,14 +6989,14 @@
       <c r="C8" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="19" t="s">
         <v>165</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>166</v>
       </c>
@@ -7027,16 +7004,16 @@
         <v>167</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>923</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="4" t="s">
         <v>924</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>168</v>
       </c>
@@ -7044,13 +7021,13 @@
         <v>169</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>926</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="E10" s="4" t="s">
         <v>927</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7061,16 +7038,16 @@
         <v>171</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>929</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="E11" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -7078,16 +7055,16 @@
         <v>173</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>932</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="E12" s="4" t="s">
         <v>933</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>174</v>
       </c>
@@ -7095,16 +7072,16 @@
         <v>175</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>935</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="E13" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="221" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>176</v>
       </c>
@@ -7112,16 +7089,16 @@
         <v>177</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>938</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="E14" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -7129,16 +7106,16 @@
         <v>179</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>941</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="E15" s="4" t="s">
         <v>942</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>180</v>
       </c>
@@ -7146,16 +7123,16 @@
         <v>181</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>944</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="E16" s="4" t="s">
         <v>945</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>182</v>
       </c>
@@ -7163,16 +7140,16 @@
         <v>183</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>947</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="E17" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>184</v>
       </c>
@@ -7180,16 +7157,16 @@
         <v>185</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>950</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="E18" s="3" t="s">
         <v>951</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>186</v>
       </c>
@@ -7197,16 +7174,16 @@
         <v>187</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>953</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="E19" t="s">
         <v>954</v>
       </c>
-      <c r="E19" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>188</v>
       </c>
@@ -7214,13 +7191,13 @@
         <v>189</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>956</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="E20" t="s">
         <v>957</v>
-      </c>
-      <c r="E20" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7231,16 +7208,16 @@
         <v>191</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>959</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="E21" t="s">
         <v>960</v>
       </c>
-      <c r="E21" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>192</v>
       </c>
@@ -7248,16 +7225,16 @@
         <v>193</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" t="s">
         <v>962</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="E22" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>194</v>
       </c>
@@ -7265,16 +7242,16 @@
         <v>195</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>964</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="E23" t="s">
         <v>965</v>
       </c>
-      <c r="E23" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>196</v>
       </c>
@@ -7282,16 +7259,16 @@
         <v>197</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>967</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="E24" t="s">
         <v>968</v>
       </c>
-      <c r="E24" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>198</v>
       </c>
@@ -7299,16 +7276,16 @@
         <v>199</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>970</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="E25" t="s">
         <v>971</v>
       </c>
-      <c r="E25" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>200</v>
       </c>
@@ -7316,16 +7293,16 @@
         <v>201</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>973</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="E26" t="s">
         <v>974</v>
       </c>
-      <c r="E26" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>202</v>
       </c>
@@ -7333,16 +7310,16 @@
         <v>203</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>976</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="E27" t="s">
         <v>977</v>
       </c>
-      <c r="E27" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>204</v>
       </c>
@@ -7350,33 +7327,33 @@
         <v>205</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="D28" s="19" t="s">
         <v>979</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="E28" t="s">
         <v>980</v>
       </c>
-      <c r="E28" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>206</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="D29" s="19" t="s">
         <v>982</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="E29" t="s">
         <v>983</v>
       </c>
-      <c r="E29" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>207</v>
       </c>
@@ -7384,16 +7361,16 @@
         <v>208</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>894</v>
+      </c>
+      <c r="E30" t="s">
         <v>985</v>
       </c>
-      <c r="D30" s="25" t="s">
-        <v>895</v>
-      </c>
-      <c r="E30" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>209</v>
       </c>
@@ -7401,16 +7378,16 @@
         <v>210</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>987</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="E31" t="s">
         <v>988</v>
       </c>
-      <c r="E31" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>211</v>
       </c>
@@ -7418,16 +7395,16 @@
         <v>212</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>987</v>
-      </c>
-      <c r="D32" s="25" t="s">
+        <v>986</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>897</v>
+      </c>
+      <c r="E32" t="s">
         <v>898</v>
       </c>
-      <c r="E32" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>213</v>
       </c>
@@ -7435,16 +7412,16 @@
         <v>214</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="D33" s="25" t="s">
+        <v>900</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -7452,33 +7429,33 @@
         <v>216</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="D34" s="19" t="s">
         <v>904</v>
       </c>
-      <c r="D34" s="25" t="s">
-        <v>905</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>217</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="D35" s="19" t="s">
         <v>993</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="E35" t="s">
         <v>994</v>
       </c>
-      <c r="E35" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>218</v>
       </c>
@@ -7486,16 +7463,16 @@
         <v>219</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="D36" s="19" t="s">
         <v>996</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="E36" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="255" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>220</v>
       </c>
@@ -7503,16 +7480,16 @@
         <v>221</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="D37" s="19" t="s">
         <v>999</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="E37" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>222</v>
       </c>
@@ -7520,16 +7497,16 @@
         <v>223</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D38" s="19" t="s">
         <v>1002</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="E38" t="s">
         <v>1003</v>
       </c>
-      <c r="E38" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -7537,16 +7514,16 @@
         <v>225</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D39" s="25" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>80</v>
       </c>
       <c r="E39" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>226</v>
       </c>
@@ -7554,14 +7531,14 @@
         <v>227</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="19" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E40" t="s">
         <v>1006</v>
       </c>
-      <c r="E40" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>228</v>
       </c>
@@ -7569,16 +7546,16 @@
         <v>229</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D41" s="19" t="s">
         <v>1008</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="E41" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>230</v>
       </c>
@@ -7586,16 +7563,16 @@
         <v>231</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D42" s="19" t="s">
         <v>1011</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="E42" t="s">
         <v>1012</v>
       </c>
-      <c r="E42" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>232</v>
       </c>
@@ -7603,16 +7580,16 @@
         <v>87</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D43" s="19" t="s">
         <v>1014</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="E43" t="s">
         <v>1015</v>
       </c>
-      <c r="E43" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="187" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>233</v>
       </c>
@@ -7620,16 +7597,16 @@
         <v>234</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D44" s="19" t="s">
         <v>1017</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="E44" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>235</v>
       </c>
@@ -7637,14 +7614,14 @@
         <v>154</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="19" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E45" t="s">
         <v>1020</v>
       </c>
-      <c r="E45" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>236</v>
       </c>
@@ -7652,16 +7629,16 @@
         <v>237</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D46" s="19" t="s">
         <v>1022</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="E46" t="s">
         <v>1023</v>
       </c>
-      <c r="E46" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>238</v>
       </c>
@@ -7669,16 +7646,16 @@
         <v>239</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D47" s="19" t="s">
         <v>1025</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="E47" t="s">
         <v>1026</v>
       </c>
-      <c r="E47" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>240</v>
       </c>
@@ -7686,16 +7663,16 @@
         <v>241</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D48" s="19" t="s">
         <v>1028</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="E48" t="s">
         <v>1029</v>
       </c>
-      <c r="E48" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>242</v>
       </c>
@@ -7703,16 +7680,16 @@
         <v>243</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D49" s="19" t="s">
         <v>1031</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="E49" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="187" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>531</v>
       </c>
@@ -7720,13 +7697,13 @@
         <v>532</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D50" s="19" t="s">
         <v>1034</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="E50" s="3" t="s">
         <v>1035</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7737,16 +7714,16 @@
         <v>515</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D51" s="19" t="s">
         <v>1037</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>1038</v>
       </c>
       <c r="E51" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>535</v>
       </c>
@@ -7754,16 +7731,16 @@
         <v>398</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D52" s="19" t="s">
         <v>1039</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="E52" t="s">
         <v>1040</v>
       </c>
-      <c r="E52" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>534</v>
       </c>
@@ -7771,16 +7748,16 @@
         <v>399</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D53" s="19" t="s">
         <v>1042</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="E53" t="s">
         <v>1043</v>
       </c>
-      <c r="E53" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>385</v>
       </c>
@@ -7788,16 +7765,16 @@
         <v>400</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D54" s="19" t="s">
         <v>1045</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="E54" t="s">
         <v>1046</v>
       </c>
-      <c r="E54" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>536</v>
       </c>
@@ -7805,13 +7782,13 @@
         <v>83</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" t="s">
         <v>1048</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7824,7 +7801,7 @@
       <c r="C56" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="19" t="s">
         <v>148</v>
       </c>
       <c r="E56" s="3" t="s">
@@ -7841,14 +7818,14 @@
       <c r="C57" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="19" t="s">
         <v>152</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>537</v>
       </c>
@@ -7856,13 +7833,13 @@
         <v>538</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D58" s="19" t="s">
         <v>1050</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="E58" s="3" t="s">
         <v>1051</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7873,16 +7850,16 @@
         <v>409</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="D59" s="19" t="s">
         <v>864</v>
       </c>
-      <c r="D59" s="25" t="s">
-        <v>865</v>
-      </c>
       <c r="E59" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>540</v>
       </c>
@@ -7890,16 +7867,16 @@
         <v>547</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D60" s="19" t="s">
         <v>1054</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="E60" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>541</v>
       </c>
@@ -7907,16 +7884,16 @@
         <v>546</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D61" s="19" t="s">
         <v>1057</v>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="E61" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>542</v>
       </c>
@@ -7924,16 +7901,16 @@
         <v>545</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D62" s="19" t="s">
         <v>1060</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="E62" t="s">
         <v>1061</v>
       </c>
-      <c r="E62" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>543</v>
       </c>
@@ -7941,16 +7918,16 @@
         <v>544</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D63" s="19" t="s">
         <v>1063</v>
       </c>
-      <c r="D63" s="25" t="s">
+      <c r="E63" t="s">
         <v>1064</v>
       </c>
-      <c r="E63" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>548</v>
       </c>
@@ -7958,16 +7935,16 @@
         <v>438</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D64" s="19" t="s">
         <v>1066</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="E64" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>549</v>
       </c>
@@ -7975,16 +7952,16 @@
         <v>378</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D65" s="19" t="s">
         <v>1069</v>
       </c>
-      <c r="D65" s="25" t="s">
+      <c r="E65" t="s">
         <v>1070</v>
       </c>
-      <c r="E65" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>550</v>
       </c>
@@ -7992,16 +7969,16 @@
         <v>551</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D66" s="19" t="s">
         <v>1072</v>
       </c>
-      <c r="D66" s="25" t="s">
+      <c r="E66" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>552</v>
       </c>
@@ -8009,30 +7986,30 @@
         <v>553</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D67" s="19" t="s">
         <v>1075</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="E67" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>554</v>
+        <v>1442</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>380</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D68" s="19" t="s">
         <v>1078</v>
       </c>
-      <c r="D68" s="25" t="s">
+      <c r="E68" s="3" t="s">
         <v>1079</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8043,13 +8020,13 @@
         <v>515</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D69" s="19" t="s">
         <v>1037</v>
       </c>
-      <c r="D69" s="25" t="s">
-        <v>1038</v>
-      </c>
       <c r="E69" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8060,13 +8037,13 @@
         <v>517</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D70" s="19" t="s">
         <v>1082</v>
       </c>
-      <c r="D70" s="25" t="s">
+      <c r="E70" t="s">
         <v>1083</v>
-      </c>
-      <c r="E70" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8077,13 +8054,13 @@
         <v>519</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="E71" t="s">
         <v>1085</v>
-      </c>
-      <c r="D71" s="25" t="s">
-        <v>519</v>
-      </c>
-      <c r="E71" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -8094,16 +8071,16 @@
         <v>521</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="E72" t="s">
         <v>1087</v>
       </c>
-      <c r="D72" s="25" t="s">
-        <v>521</v>
-      </c>
-      <c r="E72" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>511</v>
       </c>
@@ -8111,16 +8088,16 @@
         <v>523</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D73" s="19" t="s">
         <v>1089</v>
       </c>
-      <c r="D73" s="25" t="s">
+      <c r="E73" t="s">
         <v>1090</v>
       </c>
-      <c r="E73" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>513</v>
       </c>
@@ -8128,13 +8105,13 @@
         <v>525</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D74" s="19" t="s">
         <v>1092</v>
       </c>
-      <c r="D74" s="25" t="s">
+      <c r="E74" t="s">
         <v>1093</v>
-      </c>
-      <c r="E74" t="s">
-        <v>1094</v>
       </c>
     </row>
   </sheetData>
@@ -8146,2871 +8123,2870 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D19EDBB-2148-D941-8C67-E2C52C431560}">
   <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+    <sheetView topLeftCell="A141" workbookViewId="0">
       <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34" style="20" customWidth="1"/>
-    <col min="2" max="5" width="28.5" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="20"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="5" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>622</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="B9" s="21" t="s">
+      <c r="B14" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>623</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>624</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>625</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>273</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>379</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>377</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>403</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>376</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>375</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>402</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>275</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>280</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>283</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>287</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>288</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>290</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>292</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>294</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>298</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>299</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>823</v>
+      </c>
+      <c r="E46" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>401</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>686</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>305</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>817</v>
+      </c>
+      <c r="E54" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>307</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>820</v>
+      </c>
+      <c r="E55" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>309</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>812</v>
+      </c>
+      <c r="E58" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>312</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>314</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E9" s="28" t="s">
+      <c r="C61" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>315</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>316</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>320</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>322</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>324</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E66" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>326</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="E67" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>328</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>330</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>332</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>334</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>336</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>338</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>340</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>383</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>389</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>384</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>391</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>385</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>393</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>386</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>387</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>404</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>448</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>450</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>131</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>342</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>143</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>343</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>345</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="B10" s="21" t="s">
+      <c r="D91" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="E91" t="s">
         <v>1113</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>666</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>602</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>602</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
-        <v>623</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>627</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
-        <v>624</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>628</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>625</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>629</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>626</v>
-      </c>
-      <c r="B17" s="21" t="s">
+    </row>
+    <row r="92" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>133</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>346</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>138</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>858</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>405</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E95" s="23" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>406</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>861</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>408</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>864</v>
+      </c>
+      <c r="E97" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>451</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>412</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="D99" s="19" t="s">
+        <v>864</v>
+      </c>
+      <c r="E99" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>413</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>415</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>462</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>417</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>867</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>419</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>422</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>454</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>423</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>426</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="E18" s="22" t="s">
+      <c r="C108" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>456</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>429</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>427</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>873</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>430</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>459</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D113" s="19" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>431</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="D114" s="19" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E114" s="21" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>434</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D115" s="19" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>460</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>435</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E117" s="21" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>437</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D118" s="19" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E118" s="21" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>421</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>141</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>145</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>150</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>439</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>440</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D124" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>410</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>853</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>381</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>382</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D127" s="19" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>463</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D128" s="19" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>464</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>466</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D130" s="19" t="s">
+        <v>805</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>467</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>808</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>468</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D132" s="19" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>371</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>469</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D134" s="19" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>470</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D135" s="19" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>472</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D136" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>473</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D137" s="19" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>475</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D138" s="19" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>478</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D139" s="19" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>479</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D140" s="19" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>481</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D141" s="19" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>487</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D142" s="19" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>484</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D143" s="19" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>489</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D144" s="19" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>485</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D145" s="19" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>372</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D146" s="19" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>498</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D147" s="19" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>632</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>1149</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>682</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>494</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>686</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>823</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>824</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>495</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>495</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>687</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="B54" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>817</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>818</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>820</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>821</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>1163</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>812</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>813</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A60" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>601</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>1174</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>331</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E72" s="20" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E73" s="20" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A74" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E76" s="22" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E78" s="20" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A79" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>603</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E79" s="22" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A80" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>604</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D80" s="27" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A81" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>605</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>1216</v>
-      </c>
-      <c r="E81" s="22" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="C82" s="22" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="C83" s="22" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D83" s="27" t="s">
-        <v>496</v>
-      </c>
-      <c r="E83" s="20" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>449</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D84" s="27" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E84" s="20" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="B85" s="21" t="s">
-        <v>607</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D85" s="27" t="s">
-        <v>1227</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A86" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B86" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D86" s="27" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E86" s="22" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D87" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D88" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="E88" s="20" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D89" s="27" t="s">
-        <v>1236</v>
-      </c>
-      <c r="E89" s="20" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="B90" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="C90" s="22" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D90" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="E90" s="20" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D91" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="E91" s="20" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D92" s="27" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E92" s="20" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D93" s="27" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E93" s="20" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A94" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>858</v>
-      </c>
-      <c r="D94" s="27" t="s">
-        <v>859</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A95" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="B95" s="21" t="s">
+      <c r="E147" s="3" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>499</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>501</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D149" s="19" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>503</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D150" s="19" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>504</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D151" s="19" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>505</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D152" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>506</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>507</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D154" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>508</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D155" s="19" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>509</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D156" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>510</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D157" s="19" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>511</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D158" s="19" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>512</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D159" s="19" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>513</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D160" s="19" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>514</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D161" s="19" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>527</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D162" s="19" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>608</v>
       </c>
-      <c r="C95" s="22" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D95" s="27" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E95" s="30" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A96" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="C96" s="22" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D96" s="27" t="s">
-        <v>862</v>
-      </c>
-      <c r="E96" s="28" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="B97" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>864</v>
-      </c>
-      <c r="D97" s="27" t="s">
-        <v>865</v>
-      </c>
-      <c r="E97" s="20" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="20" t="s">
-        <v>451</v>
-      </c>
-      <c r="B98" s="21" t="s">
-        <v>452</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D98" s="27" t="s">
-        <v>1249</v>
-      </c>
-      <c r="E98" s="20" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="C99" s="22" t="s">
-        <v>864</v>
-      </c>
-      <c r="D99" s="27" t="s">
-        <v>865</v>
-      </c>
-      <c r="E99" s="20" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A100" s="20" t="s">
-        <v>413</v>
-      </c>
-      <c r="B100" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D100" s="27" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E100" s="22" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D101" s="27" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E101" s="20" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A102" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="B102" s="21" t="s">
-        <v>453</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D102" s="27" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E102" s="20" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A103" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="B103" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="C103" s="22" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D103" s="27" t="s">
-        <v>868</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A104" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="B104" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="C104" s="22" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D104" s="27" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E104" s="20" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="B105" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="C105" s="22" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D105" s="27" t="s">
-        <v>1265</v>
-      </c>
-      <c r="E105" s="20" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A106" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="B106" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D106" s="27" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A107" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="B107" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D107" s="27" t="s">
-        <v>871</v>
-      </c>
-      <c r="E107" s="22" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="B108" s="21" t="s">
-        <v>631</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D108" s="27" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E108" s="20" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="B109" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D109" s="27" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E109" s="20" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="B110" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="C110" s="22" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D110" s="27" t="s">
-        <v>1279</v>
-      </c>
-      <c r="E110" s="20" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A111" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="B111" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="C111" s="22" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D111" s="27" t="s">
-        <v>874</v>
-      </c>
-      <c r="E111" s="22" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="B112" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="C112" s="22" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D112" s="27" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E112" s="20" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="20" t="s">
-        <v>459</v>
-      </c>
-      <c r="B113" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="C113" s="22" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D113" s="27" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E113" s="20" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A114" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B114" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>876</v>
-      </c>
-      <c r="D114" s="27" t="s">
+      <c r="B163" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>1288</v>
       </c>
-      <c r="E114" s="28" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="B115" s="21" t="s">
-        <v>497</v>
-      </c>
-      <c r="C115" s="22" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D115" s="27" t="s">
+      <c r="D163" s="19" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E163" s="3" t="s">
         <v>1290</v>
       </c>
-      <c r="E115" s="20" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="B116" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D116" s="27" t="s">
-        <v>1293</v>
-      </c>
-      <c r="E116" s="20" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A117" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="B117" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="C117" s="22" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D117" s="27" t="s">
-        <v>1296</v>
-      </c>
-      <c r="E117" s="28" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A118" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="B118" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>1298</v>
-      </c>
-      <c r="D118" s="27" t="s">
-        <v>1299</v>
-      </c>
-      <c r="E118" s="28" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="20" t="s">
-        <v>421</v>
-      </c>
-      <c r="B119" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C119" s="22" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D119" s="27" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E119" s="20" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B120" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C120" s="22" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D120" s="27" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E120" s="20" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B121" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C121" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D121" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="E121" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B122" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C122" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="D122" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="E122" s="22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A123" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="B123" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="C123" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="D123" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="E123" s="22" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="B124" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="C124" s="22" t="s">
-        <v>441</v>
-      </c>
-      <c r="D124" s="27" t="s">
-        <v>447</v>
-      </c>
-      <c r="E124" s="22" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="B125" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="C125" s="22" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D125" s="27" t="s">
-        <v>854</v>
-      </c>
-      <c r="E125" s="22" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A126" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="B126" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="C126" s="22" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D126" s="27" t="s">
-        <v>1310</v>
-      </c>
-      <c r="E126" s="22" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A127" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="B127" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="C127" s="22" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D127" s="27" t="s">
-        <v>1313</v>
-      </c>
-      <c r="E127" s="22" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A128" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="B128" s="21" t="s">
-        <v>633</v>
-      </c>
-      <c r="C128" s="22" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D128" s="27" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E128" s="22" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="B129" s="21" t="s">
-        <v>465</v>
-      </c>
-      <c r="C129" s="22" t="s">
-        <v>803</v>
-      </c>
-      <c r="D129" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="E129" s="22" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="20" t="s">
-        <v>466</v>
-      </c>
-      <c r="B130" s="21" t="s">
-        <v>664</v>
-      </c>
-      <c r="C130" s="21" t="s">
-        <v>1318</v>
-      </c>
-      <c r="D130" s="27" t="s">
-        <v>806</v>
-      </c>
-      <c r="E130" s="22" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="20" t="s">
-        <v>467</v>
-      </c>
-      <c r="B131" s="21" t="s">
-        <v>665</v>
-      </c>
-      <c r="C131" s="21" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D131" s="27" t="s">
-        <v>809</v>
-      </c>
-      <c r="E131" s="22" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A132" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="B132" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="C132" s="22" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D132" s="27" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E132" s="22" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A133" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="B133" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="C133" s="22" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D133" s="27" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E133" s="22" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A134" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="B134" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="C134" s="22" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D134" s="27" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E134" s="22" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A135" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="B135" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="C135" s="22" t="s">
-        <v>1324</v>
-      </c>
-      <c r="D135" s="27" t="s">
-        <v>1325</v>
-      </c>
-      <c r="E135" s="22" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A136" s="20" t="s">
-        <v>472</v>
-      </c>
-      <c r="B136" s="21" t="s">
-        <v>606</v>
-      </c>
-      <c r="C136" s="22" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D136" s="27" t="s">
-        <v>606</v>
-      </c>
-      <c r="E136" s="22" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="20" t="s">
-        <v>473</v>
-      </c>
-      <c r="B137" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="C137" s="22" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D137" s="27" t="s">
-        <v>1330</v>
-      </c>
-      <c r="E137" s="22" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="20" t="s">
-        <v>475</v>
-      </c>
-      <c r="B138" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="C138" s="22" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D138" s="27" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E138" s="22" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A139" s="20" t="s">
-        <v>478</v>
-      </c>
-      <c r="B139" s="21" t="s">
-        <v>482</v>
-      </c>
-      <c r="C139" s="22" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D139" s="27" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E139" s="22" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A140" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="B140" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="C140" s="22" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D140" s="27" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E140" s="22" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A141" s="20" t="s">
-        <v>481</v>
-      </c>
-      <c r="B141" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="C141" s="22" t="s">
-        <v>1341</v>
-      </c>
-      <c r="D141" s="27" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E141" s="22" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="B142" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="C142" s="22" t="s">
-        <v>1344</v>
-      </c>
-      <c r="D142" s="27" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E142" s="22" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A143" s="20" t="s">
-        <v>484</v>
-      </c>
-      <c r="B143" s="21" t="s">
-        <v>477</v>
-      </c>
-      <c r="C143" s="22" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D143" s="27" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E143" s="22" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="B144" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="C144" s="22" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D144" s="27" t="s">
-        <v>1351</v>
-      </c>
-      <c r="E144" s="22" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A145" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="B145" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="C145" s="22" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D145" s="27" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E145" s="22" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A146" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="B146" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="C146" s="22" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D146" s="27" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E146" s="22" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A147" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="B147" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="C147" s="22" t="s">
-        <v>1359</v>
-      </c>
-      <c r="D147" s="27" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E147" s="22" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A148" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="B148" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="C148" s="22" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D148" s="27" t="s">
-        <v>1362</v>
-      </c>
-      <c r="E148" s="22" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="B149" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C149" s="22" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D149" s="27" t="s">
-        <v>1365</v>
-      </c>
-      <c r="E149" s="22" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A150" s="20" t="s">
-        <v>503</v>
-      </c>
-      <c r="B150" s="21" t="s">
-        <v>515</v>
-      </c>
-      <c r="C150" s="22" t="s">
-        <v>515</v>
-      </c>
-      <c r="D150" s="27" t="s">
-        <v>1367</v>
-      </c>
-      <c r="E150" s="22" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A151" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="B151" s="21" t="s">
-        <v>516</v>
-      </c>
-      <c r="C151" s="22" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D151" s="27" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E151" s="22" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A152" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="B152" s="21" t="s">
-        <v>517</v>
-      </c>
-      <c r="C152" s="22" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D152" s="27" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E152" s="22" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A153" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="B153" s="21" t="s">
-        <v>518</v>
-      </c>
-      <c r="C153" s="22" t="s">
-        <v>1372</v>
-      </c>
-      <c r="D153" s="27" t="s">
-        <v>1373</v>
-      </c>
-      <c r="E153" s="22" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="B154" s="21" t="s">
-        <v>519</v>
-      </c>
-      <c r="C154" s="22" t="s">
-        <v>1375</v>
-      </c>
-      <c r="D154" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="E154" s="22" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="20" t="s">
-        <v>508</v>
-      </c>
-      <c r="B155" s="21" t="s">
-        <v>520</v>
-      </c>
-      <c r="C155" s="22" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D155" s="27" t="s">
-        <v>1378</v>
-      </c>
-      <c r="E155" s="22" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="B156" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="C156" s="22" t="s">
-        <v>1380</v>
-      </c>
-      <c r="D156" s="27" t="s">
-        <v>521</v>
-      </c>
-      <c r="E156" s="22" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="B157" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="C157" s="22" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D157" s="27" t="s">
-        <v>1383</v>
-      </c>
-      <c r="E157" s="22" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="B158" s="21" t="s">
-        <v>523</v>
-      </c>
-      <c r="C158" s="22" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D158" s="27" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E158" s="22" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A159" s="20" t="s">
-        <v>512</v>
-      </c>
-      <c r="B159" s="21" t="s">
-        <v>524</v>
-      </c>
-      <c r="C159" s="22" t="s">
-        <v>1386</v>
-      </c>
-      <c r="D159" s="27" t="s">
-        <v>1387</v>
-      </c>
-      <c r="E159" s="22" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A160" s="20" t="s">
-        <v>513</v>
-      </c>
-      <c r="B160" s="21" t="s">
-        <v>525</v>
-      </c>
-      <c r="C160" s="22" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D160" s="27" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E160" s="22" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A161" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="B161" s="21" t="s">
-        <v>526</v>
-      </c>
-      <c r="C161" s="22" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D161" s="27" t="s">
-        <v>1390</v>
-      </c>
-      <c r="E161" s="22" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A162" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="B162" s="21" t="s">
-        <v>502</v>
-      </c>
-      <c r="C162" s="22" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D162" s="27" t="s">
-        <v>1365</v>
-      </c>
-      <c r="E162" s="22" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A163" s="20" t="s">
+    </row>
+    <row r="164" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>609</v>
       </c>
-      <c r="B163" s="24" t="s">
-        <v>497</v>
-      </c>
-      <c r="C163" s="22" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D163" s="27" t="s">
+      <c r="B164" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>1392</v>
       </c>
-      <c r="E163" s="22" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A164" s="20" t="s">
-        <v>610</v>
-      </c>
-      <c r="B164" s="21" t="s">
+      <c r="D164" s="19" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E164" s="21" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>611</v>
       </c>
-      <c r="C164" s="22" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D164" s="27" t="s">
-        <v>1394</v>
-      </c>
-      <c r="E164" s="28" t="s">
+      <c r="B165" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A165" s="20" t="s">
-        <v>612</v>
-      </c>
-      <c r="B165" s="21" t="s">
-        <v>613</v>
-      </c>
-      <c r="C165" s="22" t="s">
+      <c r="D165" s="19" t="s">
         <v>1396</v>
       </c>
-      <c r="D165" s="27" t="s">
+      <c r="E165" s="3" t="s">
         <v>1397</v>
-      </c>
-      <c r="E165" s="22" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="166" spans="1:5" s="7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="B166" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="B166" s="8" t="s">
-        <v>668</v>
-      </c>
       <c r="C166" s="7" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E166" s="7" t="s">
         <v>1434</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>1436</v>
-      </c>
-      <c r="E166" s="7" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="167" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="B167" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="B167" s="9" t="s">
-        <v>670</v>
-      </c>
       <c r="C167" s="7" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D167" s="7" t="s">
         <v>1437</v>
       </c>
-      <c r="D167" s="7" t="s">
+      <c r="E167" s="7" t="s">
         <v>1438</v>
-      </c>
-      <c r="E167" s="7" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="168" spans="1:5" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B168" s="8" t="s">
         <v>1432</v>
       </c>
-      <c r="B168" s="8" t="s">
-        <v>1433</v>
-      </c>
       <c r="C168" s="7" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D168" s="7" t="s">
         <v>1440</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="E168" s="7" t="s">
         <v>1441</v>
-      </c>
-      <c r="E168" s="7" t="s">
-        <v>1442</v>
       </c>
     </row>
   </sheetData>
@@ -11058,13 +11034,13 @@
         <v>349</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>1399</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="3" t="s">
         <v>1400</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -11075,13 +11051,13 @@
         <v>351</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>1402</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="3" t="s">
         <v>1403</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -11092,13 +11068,13 @@
         <v>353</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>1405</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="E4" s="3" t="s">
         <v>1406</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -11109,13 +11085,13 @@
         <v>355</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>1408</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="E5" s="3" t="s">
         <v>1409</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -11126,13 +11102,13 @@
         <v>357</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>1411</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="E6" s="3" t="s">
         <v>1412</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -11143,13 +11119,13 @@
         <v>359</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>1414</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="E7" s="3" t="s">
         <v>1415</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -11160,13 +11136,13 @@
         <v>361</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>1417</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="E8" s="3" t="s">
         <v>1418</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -11177,13 +11153,13 @@
         <v>363</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>1420</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="3" t="s">
         <v>1421</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -11194,13 +11170,13 @@
         <v>365</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>1423</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="E10" s="3" t="s">
         <v>1424</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -11211,13 +11187,13 @@
         <v>367</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>1426</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="E11" s="3" t="s">
         <v>1427</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -11228,13 +11204,13 @@
         <v>369</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>1429</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="E12" s="3" t="s">
         <v>1430</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>1431</v>
       </c>
     </row>
   </sheetData>
@@ -11244,38 +11220,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5e13aadc-de86-43ee-b386-40c01ba74c80" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="07d4ffe0-35c4-4630-b07d-57ff54db67ac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="3a79588a-61f1-49eb-bf82-c7b2c97b1d12">
-      <UserInfo>
-        <DisplayName>Bravo, Ms. Pamela (WDC)</DisplayName>
-        <AccountId>180</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Silva, Ms. Octavia  (WDC)</DisplayName>
-        <AccountId>212</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004BF2CC58B4B21249B9847CAE6C292121" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20382285bea758b172f195e70f01161d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="07d4ffe0-35c4-4630-b07d-57ff54db67ac" xmlns:ns3="3a79588a-61f1-49eb-bf82-c7b2c97b1d12" xmlns:ns4="5e13aadc-de86-43ee-b386-40c01ba74c80" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6472e07e44c21502ea15ef197acea5c" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="07d4ffe0-35c4-4630-b07d-57ff54db67ac"/>
@@ -11529,10 +11473,54 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5e13aadc-de86-43ee-b386-40c01ba74c80" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="07d4ffe0-35c4-4630-b07d-57ff54db67ac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="3a79588a-61f1-49eb-bf82-c7b2c97b1d12">
+      <UserInfo>
+        <DisplayName>Bravo, Ms. Pamela (WDC)</DisplayName>
+        <AccountId>180</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Silva, Ms. Octavia  (WDC)</DisplayName>
+        <AccountId>212</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F89B1EF0-638A-46E6-AC33-5AA4149722BE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E63CBD55-76B1-4172-879F-D383FAB08852}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="07d4ffe0-35c4-4630-b07d-57ff54db67ac"/>
+    <ds:schemaRef ds:uri="3a79588a-61f1-49eb-bf82-c7b2c97b1d12"/>
+    <ds:schemaRef ds:uri="5e13aadc-de86-43ee-b386-40c01ba74c80"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11550,21 +11538,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E63CBD55-76B1-4172-879F-D383FAB08852}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F89B1EF0-638A-46E6-AC33-5AA4149722BE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="07d4ffe0-35c4-4630-b07d-57ff54db67ac"/>
-    <ds:schemaRef ds:uri="3a79588a-61f1-49eb-bf82-c7b2c97b1d12"/>
-    <ds:schemaRef ds:uri="5e13aadc-de86-43ee-b386-40c01ba74c80"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>